--- a/13 July 18/Classes and Interfaces inutil package.xlsx
+++ b/13 July 18/Classes and Interfaces inutil package.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="interfaces" sheetId="1" r:id="rId1"/>
     <sheet name="classes" sheetId="2" r:id="rId2"/>
     <sheet name="hierarchy" sheetId="3" r:id="rId3"/>
+    <sheet name="&lt;&lt;Collection&gt;&gt; methods" sheetId="4" r:id="rId4"/>
+    <sheet name="&lt;&lt;Iterator&gt;&gt; methods" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
   <si>
     <t xml:space="preserve">Collection </t>
   </si>
@@ -328,12 +330,120 @@
   <si>
     <t>The Map hierarchy</t>
   </si>
+  <si>
+    <t>public boolean add(Object element)</t>
+  </si>
+  <si>
+    <t>is used to insert an element in this collection.</t>
+  </si>
+  <si>
+    <t>public boolean addAll(Collection c)</t>
+  </si>
+  <si>
+    <t>is used to insert the specified collection elements in the invoking collection.</t>
+  </si>
+  <si>
+    <t>public boolean remove(Object element)</t>
+  </si>
+  <si>
+    <t>is used to delete an element from this collection.</t>
+  </si>
+  <si>
+    <t>public boolean removeAll(Collection c)</t>
+  </si>
+  <si>
+    <t>is used to delete all the elements of specified collection from the invoking collection.</t>
+  </si>
+  <si>
+    <t>public boolean retainAll(Collection c)</t>
+  </si>
+  <si>
+    <t>is used to delete all the elements of invoking collection except the specified collection.</t>
+  </si>
+  <si>
+    <t>public int size()</t>
+  </si>
+  <si>
+    <t>return the total number of elements in the collection.</t>
+  </si>
+  <si>
+    <t>public void clear()</t>
+  </si>
+  <si>
+    <t>removes the total no of element from the collection.</t>
+  </si>
+  <si>
+    <t>public boolean contains(Object element)</t>
+  </si>
+  <si>
+    <t>is used to search an element.</t>
+  </si>
+  <si>
+    <t>public boolean containsAll(Collection c)</t>
+  </si>
+  <si>
+    <t>is used to search the specified collection in this collection.</t>
+  </si>
+  <si>
+    <t>public Iterator iterator()</t>
+  </si>
+  <si>
+    <t>returns an iterator.</t>
+  </si>
+  <si>
+    <t>public Object[] toArray()</t>
+  </si>
+  <si>
+    <t>converts collection into array.</t>
+  </si>
+  <si>
+    <t>public boolean isEmpty()</t>
+  </si>
+  <si>
+    <t>checks if collection is empty.</t>
+  </si>
+  <si>
+    <t>public boolean equals(Object element)</t>
+  </si>
+  <si>
+    <t>matches two collection.</t>
+  </si>
+  <si>
+    <t>public int hashCode()</t>
+  </si>
+  <si>
+    <t>returns the hashcode number for collection.</t>
+  </si>
+  <si>
+    <t>public boolean hasNext()</t>
+  </si>
+  <si>
+    <t>It returns true if iterator has more elements.</t>
+  </si>
+  <si>
+    <t>public Object next()</t>
+  </si>
+  <si>
+    <t>It returns the element and moves the cursor pointer to the next element.</t>
+  </si>
+  <si>
+    <t>public void remove()</t>
+  </si>
+  <si>
+    <t>It removes the last elements returned by the iterator. It is rarely used.</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,8 +489,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,8 +524,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -663,11 +800,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC7CCBE"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC7CCBE"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC7CCBE"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC7CCBE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC7CCBE"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC7CCBE"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFC7CCBE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -707,6 +902,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,8 +923,23 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,13 +964,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -798,13 +1011,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -845,13 +1058,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -892,13 +1105,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -939,13 +1152,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -986,13 +1199,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1033,13 +1246,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1077,13 +1290,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1121,13 +1334,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1165,13 +1378,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1209,13 +1422,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1253,13 +1466,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1297,13 +1510,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1341,13 +1554,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1385,13 +1598,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1432,13 +1645,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1479,13 +1692,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1526,13 +1739,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1573,13 +1786,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1617,13 +1830,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1661,13 +1874,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1705,13 +1918,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1749,13 +1962,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2067,11 +2280,11 @@
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="21.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" ht="21.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2166,11 +2379,11 @@
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="17.25" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -2226,7 +2439,7 @@
       <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -2372,10 +2585,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2391,49 +2604,20 @@
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="7"/>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="17"/>
@@ -2441,7 +2625,9 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -2449,36 +2635,30 @@
       <c r="K4" s="18"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="13"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
-      <c r="I6" s="13"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="7"/>
@@ -2486,31 +2666,33 @@
     <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="C7" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="F7" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A8" s="12" t="s">
-        <v>77</v>
-      </c>
+    <row r="8" spans="1:12">
+      <c r="A8" s="17"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="C8" s="13"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="7"/>
@@ -2520,29 +2702,25 @@
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="12" t="s">
-        <v>81</v>
-      </c>
+      <c r="G9" s="18"/>
       <c r="H9" s="18"/>
-      <c r="I9" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="K9" s="18"/>
       <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A10" s="17"/>
+      <c r="A10" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="C10" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -2552,32 +2730,34 @@
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A11" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="A11" s="17"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="12" t="s">
-        <v>79</v>
-      </c>
+      <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="E11" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="G11" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="K11" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
-        <v>83</v>
-      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -2586,14 +2766,16 @@
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="C13" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
-        <v>84</v>
-      </c>
+      <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -2601,15 +2783,15 @@
       <c r="K13" s="18"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+    <row r="14" spans="1:12">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -2618,65 +2800,67 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="24" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="17" spans="1:12">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="7"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="19" spans="1:12">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="17"/>
@@ -2687,9 +2871,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="12" t="s">
-        <v>88</v>
-      </c>
+      <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="7"/>
@@ -2701,7 +2883,9 @@
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
+      <c r="G21" s="12" t="s">
+        <v>85</v>
+      </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -2712,23 +2896,19 @@
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="12" t="s">
-        <v>86</v>
-      </c>
+      <c r="D22" s="18"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="12" t="s">
-        <v>87</v>
-      </c>
+      <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2746,34 +2926,32 @@
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
-        <v>83</v>
+      <c r="D24" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="F24" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+      <c r="I24" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="18" t="s">
-        <v>84</v>
-      </c>
+      <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="12" t="s">
-        <v>91</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="7"/>
@@ -2782,7 +2960,9 @@
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -2793,28 +2973,251 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="24" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I29:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="84.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A6" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A7" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A8" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A9" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A10" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A11" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A12" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A13" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A14" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" customHeight="1" thickBot="1">
+      <c r="A15" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="50.28515625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" thickBot="1">
+      <c r="A3" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/13 July 18/Classes and Interfaces inutil package.xlsx
+++ b/13 July 18/Classes and Interfaces inutil package.xlsx
@@ -905,6 +905,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -922,24 +940,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2280,11 +2280,11 @@
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="21.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3" ht="21.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2379,11 +2379,11 @@
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="17.25" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -2588,7 +2588,7 @@
   <dimension ref="A2:L29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2840,12 +2840,12 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="19" spans="1:12">
@@ -3015,12 +3015,12 @@
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3038,7 +3038,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.28515625" defaultRowHeight="18" customHeight="1"/>
@@ -3048,122 +3048,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="27" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="22" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="22" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="22" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="22" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="22" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3177,43 +3177,44 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.28515625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="27" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="22" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>126</v>
       </c>
     </row>

--- a/13 July 18/Classes and Interfaces inutil package.xlsx
+++ b/13 July 18/Classes and Interfaces inutil package.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="interfaces" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
   <si>
     <t xml:space="preserve">Collection </t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>Role</t>
+  </si>
+  <si>
+    <t>Iterable</t>
   </si>
 </sst>
 </file>
@@ -1997,6 +2000,97 @@
         </a:fillRef>
         <a:effectRef idx="2">
           <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4762500" y="323850"/>
+          <a:ext cx="19051" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Connector 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8401051" y="2181226"/>
+          <a:ext cx="361949" cy="200024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2373,7 +2467,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="17.25" customHeight="1"/>
@@ -2585,10 +2679,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2604,7 +2698,12 @@
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="F2" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
@@ -2780,7 +2879,9 @@
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12">
@@ -3176,8 +3277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.28515625" defaultRowHeight="15" customHeight="1"/>

--- a/13 July 18/Classes and Interfaces inutil package.xlsx
+++ b/13 July 18/Classes and Interfaces inutil package.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7755" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="interfaces" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="hierarchy" sheetId="3" r:id="rId3"/>
     <sheet name="&lt;&lt;Collection&gt;&gt; methods" sheetId="4" r:id="rId4"/>
     <sheet name="&lt;&lt;Iterator&gt;&gt; methods" sheetId="5" r:id="rId5"/>
+    <sheet name="HashSet vs LinkedHashSet vs Tre" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="144">
   <si>
     <t xml:space="preserve">Collection </t>
   </si>
@@ -441,12 +442,54 @@
   <si>
     <t>Iterable</t>
   </si>
+  <si>
+    <t>HashSet vs LinkedHashSet vs TreeSet</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Duplicates</t>
+  </si>
+  <si>
+    <t>Thread Safety</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Ordering</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Fastest</t>
+  </si>
+  <si>
+    <t>Faster</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Allowed</t>
+  </si>
+  <si>
+    <t>Not Allowed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,8 +556,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +596,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -944,6 +1016,18 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2681,7 +2765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -3322,4 +3406,120 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21.75" thickBot="1">
+      <c r="A1" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/13 July 18/Classes and Interfaces inutil package.xlsx
+++ b/13 July 18/Classes and Interfaces inutil package.xlsx
@@ -998,6 +998,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1016,7 +1019,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,8 +1028,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2458,11 +2458,11 @@
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="21.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" ht="21.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2557,11 +2557,11 @@
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="17.25" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -3025,12 +3025,12 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="19" spans="1:12">
@@ -3200,12 +3200,12 @@
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="33"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3413,105 +3413,105 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="3" spans="1:4" ht="15.75">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="30" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="30" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="30" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="30" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="30" t="s">
         <v>143</v>
       </c>
     </row>

--- a/13 July 18/Classes and Interfaces inutil package.xlsx
+++ b/13 July 18/Classes and Interfaces inutil package.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7755" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="7755" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="interfaces" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
   <si>
     <t xml:space="preserve">Collection </t>
   </si>
@@ -320,9 +320,6 @@
     <t>SortedMap     [i]</t>
   </si>
   <si>
-    <t>NavigableMap</t>
-  </si>
-  <si>
     <t>The Collection hierarchy</t>
   </si>
   <si>
@@ -483,6 +480,9 @@
   </si>
   <si>
     <t>Not Allowed</t>
+  </si>
+  <si>
+    <t>NavigableMap [i]</t>
   </si>
 </sst>
 </file>
@@ -2005,14 +2005,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2021,7 +2021,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3714750" y="2238376"/>
+          <a:off x="1676400" y="5448301"/>
           <a:ext cx="733425" cy="19049"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2049,14 +2049,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2065,7 +2065,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3752851" y="2447925"/>
+          <a:off x="1714501" y="5667375"/>
           <a:ext cx="685799" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2175,6 +2175,53 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2971800" y="4762501"/>
+          <a:ext cx="9525" cy="180974"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2765,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2777,7 +2824,7 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -2785,7 +2832,7 @@
     <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="F2" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
@@ -3026,7 +3073,7 @@
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
@@ -3121,13 +3168,13 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="12" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -3145,8 +3192,8 @@
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="18" t="s">
-        <v>83</v>
+      <c r="D26" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
@@ -3161,12 +3208,9 @@
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="E27" s="18"/>
       <c r="F27" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -3181,7 +3225,9 @@
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="D28" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -3195,13 +3241,15 @@
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="D29" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J29" s="35"/>
       <c r="K29" s="35"/>
@@ -3234,122 +3282,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>101</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A7" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>103</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>105</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A9" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>107</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A10" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A11" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A12" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A13" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" customHeight="1" thickBot="1">
       <c r="A15" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>119</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3373,34 +3421,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3412,7 +3460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3425,7 +3473,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" thickBot="1">
       <c r="A1" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -3433,7 +3481,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>77</v>
@@ -3447,72 +3495,72 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>134</v>
-      </c>
       <c r="C5" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>136</v>
-      </c>
       <c r="D6" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="C7" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>139</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="C8" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>142</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/13 July 18/Classes and Interfaces inutil package.xlsx
+++ b/13 July 18/Classes and Interfaces inutil package.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="145">
   <si>
     <t xml:space="preserve">Collection </t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>NavigableMap [i]</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
   </si>
 </sst>
 </file>
@@ -2812,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3128,7 +3131,9 @@
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="D22" s="18" t="s">
+        <v>144</v>
+      </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -3461,7 +3466,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
